--- a/statistiche/bpic11XGBoostCounterfactualsWithMax_1/944.xlsx
+++ b/statistiche/bpic11XGBoostCounterfactualsWithMax_1/944.xlsx
@@ -458,967 +458,967 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>387070A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>378216A</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>370737C</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>370489S</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AC380077</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AC10207</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>AC613000</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>AC370606</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>370407C</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>AC386002</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AC370442</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>370707S</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AC355401</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>376480A</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>376482S</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AC410500</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>AC370716</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>377498A</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>AC378458</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>370111S</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>377121S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>AC372441</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>AC378858</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>AC612000</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>370505A</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>AC370423</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>AC375075</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370129</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>AC372417</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>AC370415</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>AC359999</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AC370443</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AC370403</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>370701S</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>339988E</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>AC337105</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>AC378607</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>370403S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AC379999</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370416</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>376487.0</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>AC355111</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>339099B</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>370737Z</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>AC709999</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>370488S</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>AC387070</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>AC378449</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>370136A</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>370421S</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>372417S</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>337190C</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370440</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>339995C</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>370488J</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>AC386041</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>379000A</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>AC389190</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>370401S</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>AC710290</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>375003A</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>AC370421</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>AC372439</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>378858S</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>AC356132</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC355409</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>AC370116</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>AC410100</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>AC413489</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>AC411100</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337441</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>AC413461</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>389073.0</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>AC610001</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>302282.0</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>370828A</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>AC387001</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>AC389102</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>AC388130</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>AC386001</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>AC355427</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>370401C</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>372440A</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>330001B</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370424</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>AC370711</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>378452S</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>370737S</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>AC10107</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>376400.0</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AC370419</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC378546</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>370407.0</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>AC614400</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>AC375518</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>370443S</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>AC350507</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>AC390520</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>AC370135</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>370420S</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>370402S</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>375138A</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>AC378720</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>378609S</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370437</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>AC337440</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>AC378808</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>AC378729</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>372454A</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>370466C</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>370480A</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>339171A</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>370715S</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>AC378149</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>AC355201</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>370715A</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>AC376406</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC337480</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>AC387090</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>376482C</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>AC387002</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>AC350503</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337220</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>AC355105</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>370488T</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>378609R</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC380000</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>370711S</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>386001Z</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>370501.0</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>370712B</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>378609K</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>337419C</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>AC40014</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>AC686405</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>AC415100</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC356134</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>370488G</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>AC375004</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>AC619600</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>370465Q</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>AC419100</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>370419S</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC20113</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>AC372414</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>370423T</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>302211.0</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>AC375005</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370111</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>AC337451</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>339488A</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>AC356133</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>302213E</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>370426S</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>AC10213</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>370442S</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>AC378403</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370604</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>387042A</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>376425A</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>AC386042</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>AC339160</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390183</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>AC20189</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>AC390001</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>378453S</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>AC370420</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>AC370172</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AC378449</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>370423T</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>372417S</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>AC378403</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>AC10213</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>376482C</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>AC378431</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>370488E</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>339486E</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>AC370000</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>AC388170</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>AC370401</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370402</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>370488H</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>AC390003</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>AC386902</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390004</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>AC337452</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>AC339956</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>AC710170</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>370504A</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370701</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>376467E</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>AC390550</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>AC378452</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>AC376406</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>AC370423</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>387042A</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>AC372441</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>AC390520</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>AC372439</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>AC378458</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>AC40016</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>AC393628</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>370504A</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>370712B</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>387070A</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>AC370000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>AC40014</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>AC415100</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>AC337480</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>AC410100</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>AC337440</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>372454A</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>AC390001</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>AC337220</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>AC389102</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>AC378858</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>370737C</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>376467E</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>370488G</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>AC386041</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>370737S</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>AC386902</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>370421S</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>AC710170</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>AC390004</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>372440A</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>370828A</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>AC386001</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>370715A</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>330001B</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>386001Z</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>378609R</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>AC355201</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>AC410500</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC386002</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>AC10307</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>378453A</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>AC10113</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370606</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>370465Q</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>370420S</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>376487.0</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>389073.0</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>AC380077</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>AC378546</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>AC370424</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC411100</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>370401S</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>339988E</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>AC378607</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>376482S</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>370419S</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>370488H</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>376425A</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>AC614400</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>378216A</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>AC387070</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>AC370129</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>AC375075</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>AC370443</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>AC378431</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>377498A</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC610001</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>AC390183</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370416</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>337190C</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>370111S</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>AC339956</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>302213E</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>AC355105</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>AC10207</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>302211.0</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC375005</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>370480A</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>AC355401</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>AC390550</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>AC370135</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>370488J</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>AC355427</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>378609S</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>AC387001</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>AC413461</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>AC337452</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>AC413489</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>AC389190</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>AC356132</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>339995C</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>AC370420</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC379999</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>AC337105</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>339486E</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>AC378808</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>370402S</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>370442S</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370716</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>AC337441</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>AC356133</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>AC359999</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370401</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>AC372414</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>AC370419</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>370701S</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>AC378149</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>370715S</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>AC370415</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378729</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>AC380000</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>302282.0</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>378452S</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>AC20189</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>370711S</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>AC350503</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>AC387090</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>AC355409</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>370501.0</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>AC370403</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>370466C</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>AC612000</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>AC355111</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>376480A</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370442</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>AC390003</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>378858S</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>AC20113</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378720</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>AC40016</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>339099B</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>AC388130</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>370505A</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>AC709999</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>370737Z</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>377121S</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>370488T</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>370403S</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>AC613000</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>AC339160</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>370407.0</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>AC388170</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>AC350507</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>337419C</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370111</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>370488S</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370437</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>370407C</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>370489S</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>378453S</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370421</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>AC370116</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>AC372417</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>AC356134</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC10307</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>370707S</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>AC375518</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>AC686405</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>379000A</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>AC370440</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>AC375004</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370604</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>AC619600</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>AC337451</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>AC370711</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>376400.0</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>370488E</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>AC386042</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>375138A</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>339171A</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>370443S</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>370426S</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>AC387002</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>370401C</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>AC370701</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>375003A</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>378453A</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>378609K</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>AC710290</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>AC10107</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>AC370402</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>339488A</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>370136A</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="2" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="GJ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK2" s="2" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -2372,32 +2372,32 @@
         <v>0</v>
       </c>
       <c r="DH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
         <v>1</v>
       </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK3" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="2" t="n">
         <v>0</v>
@@ -2826,41 +2826,41 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="BV4" s="2" t="n">
         <v>0</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="GJ4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK4" s="2" t="n">
         <v>0</v>
@@ -3253,116 +3253,116 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AN5" s="2" t="n">
         <v>0</v>
       </c>
@@ -3430,41 +3430,41 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="BV5" s="2" t="n">
         <v>0</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="EO5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP5" s="2" t="n">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="GJ5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK5" s="2" t="n">
         <v>0</v>
@@ -3857,416 +3857,416 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="n">
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="2" t="n">
+      <c r="BV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="EJ6" s="2" t="n">
         <v>0</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="EO6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP6" s="2" t="n">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="GJ6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK6" s="2" t="n">
         <v>0</v>
@@ -4461,434 +4461,434 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="n">
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Z7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="2" t="n">
+      <c r="EJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO7" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="EP7" s="2" t="n">
         <v>0</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="GJ7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK7" s="2" t="n">
         <v>0</v>
